--- a/Municípios/Data/PEVS_extracao.xlsx
+++ b/Municípios/Data/PEVS_extracao.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10484,7 +10484,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13584,7 +13584,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -14669,7 +14669,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -14762,7 +14762,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -15320,7 +15320,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -16374,7 +16374,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -16901,7 +16901,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -17056,7 +17056,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -18637,7 +18637,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -19629,7 +19629,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -20094,7 +20094,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -20125,7 +20125,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -21117,7 +21117,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -21303,7 +21303,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -21427,7 +21427,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -21830,7 +21830,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -21954,7 +21954,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -22853,7 +22853,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -23101,7 +23101,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -23132,7 +23132,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -24062,7 +24062,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -24093,7 +24093,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -24496,7 +24496,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -24589,7 +24589,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Rendimento médio na extração vegetal</t>
+          <t>Valor médio unitário na extração vegetal</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">

--- a/Municípios/Data/PEVS_extracao.xlsx
+++ b/Municípios/Data/PEVS_extracao.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10484,7 +10484,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13584,7 +13584,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -14669,7 +14669,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -14762,7 +14762,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -15320,7 +15320,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -16374,7 +16374,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -16901,7 +16901,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -17056,7 +17056,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -18637,7 +18637,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -19629,7 +19629,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -20094,7 +20094,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -20125,7 +20125,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -21117,7 +21117,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -21303,7 +21303,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -21427,7 +21427,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -21830,7 +21830,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -21954,7 +21954,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -22853,7 +22853,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -23101,7 +23101,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -23132,7 +23132,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -24062,7 +24062,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -24093,7 +24093,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -24496,7 +24496,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -24589,7 +24589,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Valor médio unitário na extração vegetal</t>
+          <t>Preço médio recebido na extração vegetal</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">

--- a/Municípios/Data/PEVS_extracao.xlsx
+++ b/Municípios/Data/PEVS_extracao.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,17 +390,27 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Valor médio real unitário</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Ranking Quantidade produzida na extração vegetal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ranking Valor nominal da produção</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ranking Valor real da produção</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Ranking Valor médio real unitário</t>
         </is>
       </c>
     </row>
@@ -430,7 +440,7 @@
         <v>33</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -438,6 +448,12 @@
       <c r="I2">
         <v>7</v>
       </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -461,12 +477,12 @@
       <c r="F3">
         <v>33</v>
       </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
       <c r="I3">
         <v>16</v>
       </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,7 +510,7 @@
         <v>32</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -502,6 +518,12 @@
       <c r="I4">
         <v>7</v>
       </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,12 +551,18 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
@@ -560,12 +588,12 @@
       <c r="F6">
         <v>40</v>
       </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
       <c r="I6">
         <v>15</v>
       </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,7 +621,7 @@
         <v>48</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -601,6 +629,12 @@
       <c r="I7">
         <v>6</v>
       </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -628,13 +662,19 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -659,12 +699,12 @@
       <c r="F9">
         <v>56</v>
       </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
       <c r="I9">
         <v>15</v>
       </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -692,14 +732,20 @@
         <v>38</v>
       </c>
       <c r="G10">
+        <v>0.06</v>
+      </c>
+      <c r="H10">
         <v>6</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -727,12 +773,18 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
     </row>
@@ -758,12 +810,12 @@
       <c r="F12">
         <v>48</v>
       </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
       <c r="I12">
         <v>15</v>
       </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -791,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>0.06</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -799,6 +851,12 @@
       <c r="I13">
         <v>7</v>
       </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -826,13 +884,19 @@
         <v>11</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -857,12 +921,12 @@
       <c r="F15">
         <v>53</v>
       </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
       <c r="I15">
         <v>15</v>
       </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -886,12 +950,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
       <c r="I16">
         <v>3</v>
       </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -919,7 +983,7 @@
         <v>55</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>2.62</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -927,6 +991,12 @@
       <c r="I17">
         <v>7</v>
       </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -954,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>2.62</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -962,6 +1032,12 @@
       <c r="I18">
         <v>7</v>
       </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -985,12 +1061,12 @@
       <c r="F19">
         <v>55</v>
       </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
       <c r="I19">
         <v>12</v>
       </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1018,7 +1094,7 @@
         <v>49</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -1026,6 +1102,12 @@
       <c r="I20">
         <v>7</v>
       </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1053,7 +1135,7 @@
         <v>49</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -1061,6 +1143,12 @@
       <c r="I21">
         <v>7</v>
       </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1084,12 +1172,12 @@
       <c r="F22">
         <v>49</v>
       </c>
-      <c r="H22">
-        <v>13</v>
-      </c>
       <c r="I22">
         <v>13</v>
       </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1117,7 +1205,7 @@
         <v>169</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1125,6 +1213,12 @@
       <c r="I23">
         <v>3</v>
       </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1152,7 +1246,7 @@
         <v>169</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1160,6 +1254,12 @@
       <c r="I24">
         <v>3</v>
       </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1183,12 +1283,12 @@
       <c r="F25">
         <v>169</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
       <c r="I25">
         <v>3</v>
       </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1216,7 +1316,7 @@
         <v>124</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>3.18</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -1224,6 +1324,12 @@
       <c r="I26">
         <v>6</v>
       </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1251,7 +1357,7 @@
         <v>124</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>3.18</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -1259,6 +1365,12 @@
       <c r="I27">
         <v>6</v>
       </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1282,12 +1394,12 @@
       <c r="F28">
         <v>124</v>
       </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
       <c r="I28">
         <v>8</v>
       </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1315,7 +1427,7 @@
         <v>95</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>3.96</v>
       </c>
       <c r="H29">
         <v>7</v>
@@ -1323,6 +1435,12 @@
       <c r="I29">
         <v>7</v>
       </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1350,7 +1468,7 @@
         <v>95</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>3.96</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -1358,6 +1476,12 @@
       <c r="I30">
         <v>7</v>
       </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1381,12 +1505,12 @@
       <c r="F31">
         <v>95</v>
       </c>
-      <c r="H31">
-        <v>11</v>
-      </c>
       <c r="I31">
         <v>11</v>
       </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1414,7 +1538,7 @@
         <v>57</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>2.59</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -1422,6 +1546,12 @@
       <c r="I32">
         <v>6</v>
       </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1449,7 +1579,7 @@
         <v>57</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>2.59</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -1457,6 +1587,12 @@
       <c r="I33">
         <v>6</v>
       </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1480,12 +1616,12 @@
       <c r="F34">
         <v>57</v>
       </c>
-      <c r="H34">
-        <v>11</v>
-      </c>
       <c r="I34">
         <v>11</v>
       </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1513,7 +1649,7 @@
         <v>54</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -1521,6 +1657,12 @@
       <c r="I35">
         <v>6</v>
       </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1548,7 +1690,7 @@
         <v>54</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="H36">
         <v>6</v>
@@ -1556,6 +1698,12 @@
       <c r="I36">
         <v>6</v>
       </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1579,12 +1727,12 @@
       <c r="F37">
         <v>54</v>
       </c>
-      <c r="H37">
-        <v>11</v>
-      </c>
       <c r="I37">
         <v>11</v>
       </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1612,7 +1760,7 @@
         <v>76</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>2.92</v>
       </c>
       <c r="H38">
         <v>8</v>
@@ -1620,6 +1768,12 @@
       <c r="I38">
         <v>8</v>
       </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1647,7 +1801,7 @@
         <v>76</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>2.92</v>
       </c>
       <c r="H39">
         <v>8</v>
@@ -1655,6 +1809,12 @@
       <c r="I39">
         <v>8</v>
       </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1678,12 +1838,12 @@
       <c r="F40">
         <v>76</v>
       </c>
-      <c r="H40">
-        <v>11</v>
-      </c>
       <c r="I40">
         <v>11</v>
       </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1711,7 +1871,7 @@
         <v>79</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>3.16</v>
       </c>
       <c r="H41">
         <v>8</v>
@@ -1719,6 +1879,12 @@
       <c r="I41">
         <v>8</v>
       </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1746,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>3.16</v>
       </c>
       <c r="H42">
         <v>8</v>
@@ -1754,6 +1920,12 @@
       <c r="I42">
         <v>8</v>
       </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1777,12 +1949,12 @@
       <c r="F43">
         <v>79</v>
       </c>
-      <c r="H43">
-        <v>13</v>
-      </c>
       <c r="I43">
         <v>13</v>
       </c>
+      <c r="J43">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1810,14 +1982,20 @@
         <v>68</v>
       </c>
       <c r="G44">
+        <v>3.24</v>
+      </c>
+      <c r="H44">
         <v>8</v>
-      </c>
-      <c r="H44">
-        <v>9</v>
       </c>
       <c r="I44">
         <v>9</v>
       </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1845,14 +2023,20 @@
         <v>68</v>
       </c>
       <c r="G45">
+        <v>3.24</v>
+      </c>
+      <c r="H45">
         <v>8</v>
-      </c>
-      <c r="H45">
-        <v>9</v>
       </c>
       <c r="I45">
         <v>9</v>
       </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1876,12 +2060,12 @@
       <c r="F46">
         <v>68</v>
       </c>
-      <c r="H46">
-        <v>13</v>
-      </c>
       <c r="I46">
         <v>13</v>
       </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1905,12 +2089,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>25</v>
-      </c>
       <c r="I47">
         <v>25</v>
       </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1934,12 +2118,12 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="H48">
-        <v>13</v>
-      </c>
       <c r="I48">
         <v>13</v>
       </c>
+      <c r="J48">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1963,12 +2147,12 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="H49">
-        <v>13</v>
-      </c>
       <c r="I49">
         <v>13</v>
       </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1996,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>12</v>
@@ -2004,6 +2188,12 @@
       <c r="I50">
         <v>12</v>
       </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2031,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>12</v>
@@ -2039,6 +2229,12 @@
       <c r="I51">
         <v>12</v>
       </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2062,12 +2258,12 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="H52">
-        <v>25</v>
-      </c>
       <c r="I52">
         <v>25</v>
       </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2095,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>12</v>
@@ -2103,6 +2299,12 @@
       <c r="I53">
         <v>12</v>
       </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2130,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>12</v>
@@ -2138,6 +2340,12 @@
       <c r="I54">
         <v>12</v>
       </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2161,12 +2369,12 @@
       <c r="F55">
         <v>2</v>
       </c>
-      <c r="H55">
-        <v>24</v>
-      </c>
       <c r="I55">
         <v>24</v>
       </c>
+      <c r="J55">
+        <v>24</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2194,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>12</v>
@@ -2202,6 +2410,12 @@
       <c r="I56">
         <v>12</v>
       </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2229,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>12</v>
@@ -2237,6 +2451,12 @@
       <c r="I57">
         <v>12</v>
       </c>
+      <c r="J57">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2260,12 +2480,12 @@
       <c r="F58">
         <v>3</v>
       </c>
-      <c r="H58">
-        <v>24</v>
-      </c>
       <c r="I58">
         <v>24</v>
       </c>
+      <c r="J58">
+        <v>24</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2293,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>12</v>
@@ -2301,6 +2521,12 @@
       <c r="I59">
         <v>12</v>
       </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2328,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>12</v>
@@ -2336,6 +2562,12 @@
       <c r="I60">
         <v>12</v>
       </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <v>12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2359,12 +2591,12 @@
       <c r="F61">
         <v>3</v>
       </c>
-      <c r="H61">
-        <v>24</v>
-      </c>
       <c r="I61">
         <v>24</v>
       </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2392,14 +2624,20 @@
         <v>11</v>
       </c>
       <c r="G62">
+        <v>0.06</v>
+      </c>
+      <c r="H62">
         <v>11</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
       </c>
       <c r="I62">
         <v>10</v>
       </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2423,12 +2661,12 @@
       <c r="F63">
         <v>11</v>
       </c>
-      <c r="H63">
-        <v>21</v>
-      </c>
       <c r="I63">
         <v>21</v>
       </c>
+      <c r="J63">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2456,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>0.05</v>
       </c>
       <c r="H64">
         <v>12</v>
@@ -2464,6 +2702,12 @@
       <c r="I64">
         <v>12</v>
       </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2487,12 +2731,12 @@
       <c r="F65">
         <v>11</v>
       </c>
-      <c r="H65">
-        <v>22</v>
-      </c>
       <c r="I65">
         <v>22</v>
       </c>
+      <c r="J65">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2520,14 +2764,20 @@
         <v>13</v>
       </c>
       <c r="G66">
+        <v>0.06</v>
+      </c>
+      <c r="H66">
         <v>12</v>
-      </c>
-      <c r="H66">
-        <v>11</v>
       </c>
       <c r="I66">
         <v>11</v>
       </c>
+      <c r="J66">
+        <v>11</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2555,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -2563,6 +2813,12 @@
       <c r="I67">
         <v>2</v>
       </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2586,12 +2842,12 @@
       <c r="F68">
         <v>17</v>
       </c>
-      <c r="H68">
-        <v>21</v>
-      </c>
       <c r="I68">
         <v>21</v>
       </c>
+      <c r="J68">
+        <v>21</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2619,7 +2875,7 @@
         <v>13</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="H69">
         <v>12</v>
@@ -2627,6 +2883,12 @@
       <c r="I69">
         <v>12</v>
       </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2654,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2662,6 +2924,12 @@
       <c r="I70">
         <v>2</v>
       </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2685,12 +2953,12 @@
       <c r="F71">
         <v>19</v>
       </c>
-      <c r="H71">
-        <v>21</v>
-      </c>
       <c r="I71">
         <v>21</v>
       </c>
+      <c r="J71">
+        <v>21</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2714,12 +2982,12 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
       <c r="I72">
         <v>3</v>
       </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2747,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H73">
         <v>12</v>
@@ -2755,6 +3023,12 @@
       <c r="I73">
         <v>12</v>
       </c>
+      <c r="J73">
+        <v>12</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2782,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -2790,6 +3064,12 @@
       <c r="I74">
         <v>2</v>
       </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2813,12 +3093,12 @@
       <c r="F75">
         <v>25</v>
       </c>
-      <c r="H75">
-        <v>19</v>
-      </c>
       <c r="I75">
         <v>19</v>
       </c>
+      <c r="J75">
+        <v>19</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2842,12 +3122,12 @@
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
       <c r="I76">
         <v>3</v>
       </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2875,14 +3155,20 @@
         <v>8</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2910,7 +3196,7 @@
         <v>84</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -2918,6 +3204,12 @@
       <c r="I78">
         <v>3</v>
       </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2941,12 +3233,12 @@
       <c r="F79">
         <v>91</v>
       </c>
-      <c r="H79">
-        <v>9</v>
-      </c>
       <c r="I79">
         <v>9</v>
       </c>
+      <c r="J79">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2974,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -2982,6 +3274,12 @@
       <c r="I80">
         <v>2</v>
       </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3009,14 +3307,20 @@
         <v>80</v>
       </c>
       <c r="G81">
+        <v>0.05</v>
+      </c>
+      <c r="H81">
         <v>4</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
       </c>
       <c r="I81">
         <v>3</v>
       </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3040,12 +3344,12 @@
       <c r="F82">
         <v>88</v>
       </c>
-      <c r="H82">
-        <v>8</v>
-      </c>
       <c r="I82">
         <v>8</v>
       </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3073,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -3081,6 +3385,12 @@
       <c r="I83">
         <v>2</v>
       </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3108,14 +3418,20 @@
         <v>84</v>
       </c>
       <c r="G84">
+        <v>0.06</v>
+      </c>
+      <c r="H84">
         <v>4</v>
-      </c>
-      <c r="H84">
-        <v>3</v>
       </c>
       <c r="I84">
         <v>3</v>
       </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3139,12 +3455,12 @@
       <c r="F85">
         <v>93</v>
       </c>
-      <c r="H85">
-        <v>10</v>
-      </c>
       <c r="I85">
         <v>10</v>
       </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3172,7 +3488,7 @@
         <v>11</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -3180,6 +3496,12 @@
       <c r="I86">
         <v>2</v>
       </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3207,7 +3529,7 @@
         <v>86</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -3215,6 +3537,12 @@
       <c r="I87">
         <v>4</v>
       </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3238,12 +3566,12 @@
       <c r="F88">
         <v>96</v>
       </c>
-      <c r="H88">
-        <v>10</v>
-      </c>
       <c r="I88">
         <v>10</v>
       </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3271,12 +3599,18 @@
         <v>12</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
         <v>1</v>
       </c>
     </row>
@@ -3306,7 +3640,7 @@
         <v>88</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -3314,6 +3648,12 @@
       <c r="I90">
         <v>4</v>
       </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3337,12 +3677,12 @@
       <c r="F91">
         <v>100</v>
       </c>
-      <c r="H91">
-        <v>10</v>
-      </c>
       <c r="I91">
         <v>10</v>
       </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3370,7 +3710,7 @@
         <v>206</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>3.17</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -3378,6 +3718,12 @@
       <c r="I92">
         <v>2</v>
       </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3405,7 +3751,7 @@
         <v>206</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>3.17</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -3413,6 +3759,12 @@
       <c r="I93">
         <v>2</v>
       </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3436,12 +3788,12 @@
       <c r="F94">
         <v>206</v>
       </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
       <c r="I94">
         <v>2</v>
       </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3469,7 +3821,7 @@
         <v>190</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -3477,6 +3829,12 @@
       <c r="I95">
         <v>2</v>
       </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3504,7 +3862,7 @@
         <v>190</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -3512,6 +3870,12 @@
       <c r="I96">
         <v>2</v>
       </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3535,12 +3899,12 @@
       <c r="F97">
         <v>190</v>
       </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
       <c r="I97">
         <v>2</v>
       </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3568,7 +3932,7 @@
         <v>246</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -3576,6 +3940,12 @@
       <c r="I98">
         <v>2</v>
       </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3603,7 +3973,7 @@
         <v>246</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>2.93</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -3611,6 +3981,12 @@
       <c r="I99">
         <v>2</v>
       </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3634,12 +4010,12 @@
       <c r="F100">
         <v>246</v>
       </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
       <c r="I100">
         <v>2</v>
       </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3667,14 +4043,20 @@
         <v>212</v>
       </c>
       <c r="G101">
+        <v>2.65</v>
+      </c>
+      <c r="H101">
         <v>2</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
       </c>
       <c r="I101">
         <v>3</v>
       </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3702,14 +4084,20 @@
         <v>212</v>
       </c>
       <c r="G102">
+        <v>2.65</v>
+      </c>
+      <c r="H102">
         <v>2</v>
-      </c>
-      <c r="H102">
-        <v>3</v>
       </c>
       <c r="I102">
         <v>3</v>
       </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3733,12 +4121,12 @@
       <c r="F103">
         <v>212</v>
       </c>
-      <c r="H103">
-        <v>3</v>
-      </c>
       <c r="I103">
         <v>3</v>
       </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3766,13 +4154,19 @@
         <v>219</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>3.22</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -3801,13 +4195,19 @@
         <v>219</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>3.22</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
         <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -3832,10 +4232,10 @@
       <c r="F106">
         <v>219</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
         <v>1</v>
       </c>
     </row>
@@ -3865,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>0.05</v>
       </c>
       <c r="H107">
         <v>6</v>
@@ -3873,6 +4273,12 @@
       <c r="I107">
         <v>6</v>
       </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3896,12 +4302,12 @@
       <c r="F108">
         <v>41</v>
       </c>
-      <c r="H108">
-        <v>14</v>
-      </c>
       <c r="I108">
         <v>14</v>
       </c>
+      <c r="J108">
+        <v>14</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3929,7 +4335,7 @@
         <v>39</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>0.05</v>
       </c>
       <c r="H109">
         <v>6</v>
@@ -3937,6 +4343,12 @@
       <c r="I109">
         <v>6</v>
       </c>
+      <c r="J109">
+        <v>6</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3960,12 +4372,12 @@
       <c r="F110">
         <v>39</v>
       </c>
-      <c r="H110">
-        <v>16</v>
-      </c>
       <c r="I110">
         <v>16</v>
       </c>
+      <c r="J110">
+        <v>16</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3993,14 +4405,20 @@
         <v>42</v>
       </c>
       <c r="G111">
+        <v>0.06</v>
+      </c>
+      <c r="H111">
         <v>6</v>
-      </c>
-      <c r="H111">
-        <v>7</v>
       </c>
       <c r="I111">
         <v>7</v>
       </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4024,12 +4442,12 @@
       <c r="F112">
         <v>42</v>
       </c>
-      <c r="H112">
-        <v>17</v>
-      </c>
       <c r="I112">
         <v>17</v>
       </c>
+      <c r="J112">
+        <v>17</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4057,14 +4475,20 @@
         <v>39</v>
       </c>
       <c r="G113">
+        <v>0.06</v>
+      </c>
+      <c r="H113">
         <v>7</v>
-      </c>
-      <c r="H113">
-        <v>6</v>
       </c>
       <c r="I113">
         <v>6</v>
       </c>
+      <c r="J113">
+        <v>6</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4088,12 +4512,12 @@
       <c r="F114">
         <v>39</v>
       </c>
-      <c r="H114">
-        <v>18</v>
-      </c>
       <c r="I114">
         <v>18</v>
       </c>
+      <c r="J114">
+        <v>18</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4121,7 +4545,7 @@
         <v>46</v>
       </c>
       <c r="G115">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H115">
         <v>6</v>
@@ -4129,6 +4553,12 @@
       <c r="I115">
         <v>6</v>
       </c>
+      <c r="J115">
+        <v>6</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4152,12 +4582,12 @@
       <c r="F116">
         <v>46</v>
       </c>
-      <c r="H116">
-        <v>16</v>
-      </c>
       <c r="I116">
         <v>16</v>
       </c>
+      <c r="J116">
+        <v>16</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4185,13 +4615,19 @@
         <v>228</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>3.17</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -4220,13 +4656,19 @@
         <v>228</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3.17</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -4251,10 +4693,10 @@
       <c r="F119">
         <v>228</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
       <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
         <v>1</v>
       </c>
     </row>
@@ -4284,13 +4726,19 @@
         <v>231</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2.92</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4319,13 +4767,19 @@
         <v>231</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2.92</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4350,10 +4804,10 @@
       <c r="F122">
         <v>231</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
       <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
         <v>1</v>
       </c>
     </row>
@@ -4383,13 +4837,19 @@
         <v>262</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2.91</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -4418,13 +4878,19 @@
         <v>262</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2.91</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -4449,10 +4915,10 @@
       <c r="F125">
         <v>262</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
       <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
         <v>1</v>
       </c>
     </row>
@@ -4482,13 +4948,19 @@
         <v>235</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>2.64</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -4517,13 +4989,19 @@
         <v>235</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2.64</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -4548,10 +5026,10 @@
       <c r="F128">
         <v>235</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
       <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
         <v>1</v>
       </c>
     </row>
@@ -4581,14 +5059,20 @@
         <v>208</v>
       </c>
       <c r="G129">
+        <v>3.2</v>
+      </c>
+      <c r="H129">
         <v>2</v>
-      </c>
-      <c r="H129">
-        <v>3</v>
       </c>
       <c r="I129">
         <v>3</v>
       </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>11</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4616,14 +5100,20 @@
         <v>208</v>
       </c>
       <c r="G130">
+        <v>3.2</v>
+      </c>
+      <c r="H130">
         <v>2</v>
-      </c>
-      <c r="H130">
-        <v>3</v>
       </c>
       <c r="I130">
         <v>3</v>
       </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4647,12 +5137,12 @@
       <c r="F131">
         <v>208</v>
       </c>
-      <c r="H131">
-        <v>3</v>
-      </c>
       <c r="I131">
         <v>3</v>
       </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4680,14 +5170,20 @@
         <v>140</v>
       </c>
       <c r="G132">
+        <v>3.18</v>
+      </c>
+      <c r="H132">
         <v>4</v>
-      </c>
-      <c r="H132">
-        <v>3</v>
       </c>
       <c r="I132">
         <v>3</v>
       </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4715,14 +5211,20 @@
         <v>140</v>
       </c>
       <c r="G133">
+        <v>3.18</v>
+      </c>
+      <c r="H133">
         <v>4</v>
-      </c>
-      <c r="H133">
-        <v>3</v>
       </c>
       <c r="I133">
         <v>3</v>
       </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4746,12 +5248,12 @@
       <c r="F134">
         <v>140</v>
       </c>
-      <c r="H134">
-        <v>3</v>
-      </c>
       <c r="I134">
         <v>3</v>
       </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4779,14 +5281,20 @@
         <v>138</v>
       </c>
       <c r="G135">
+        <v>3.07</v>
+      </c>
+      <c r="H135">
         <v>4</v>
-      </c>
-      <c r="H135">
-        <v>3</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4814,14 +5322,20 @@
         <v>138</v>
       </c>
       <c r="G136">
+        <v>3.07</v>
+      </c>
+      <c r="H136">
         <v>4</v>
-      </c>
-      <c r="H136">
-        <v>3</v>
       </c>
       <c r="I136">
         <v>3</v>
       </c>
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4845,12 +5359,12 @@
       <c r="F137">
         <v>138</v>
       </c>
-      <c r="H137">
-        <v>3</v>
-      </c>
       <c r="I137">
         <v>3</v>
       </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4878,7 +5392,7 @@
         <v>151</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H138">
         <v>5</v>
@@ -4886,6 +5400,12 @@
       <c r="I138">
         <v>5</v>
       </c>
+      <c r="J138">
+        <v>5</v>
+      </c>
+      <c r="K138">
+        <v>10</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4913,7 +5433,7 @@
         <v>151</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H139">
         <v>5</v>
@@ -4921,6 +5441,12 @@
       <c r="I139">
         <v>5</v>
       </c>
+      <c r="J139">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <v>10</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4944,12 +5470,12 @@
       <c r="F140">
         <v>151</v>
       </c>
-      <c r="H140">
-        <v>5</v>
-      </c>
       <c r="I140">
         <v>5</v>
       </c>
+      <c r="J140">
+        <v>5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4977,14 +5503,20 @@
         <v>220</v>
       </c>
       <c r="G141">
+        <v>3.93</v>
+      </c>
+      <c r="H141">
         <v>3</v>
-      </c>
-      <c r="H141">
-        <v>2</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5012,14 +5544,20 @@
         <v>220</v>
       </c>
       <c r="G142">
+        <v>3.93</v>
+      </c>
+      <c r="H142">
         <v>3</v>
-      </c>
-      <c r="H142">
-        <v>2</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5043,12 +5581,12 @@
       <c r="F143">
         <v>220</v>
       </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
       <c r="I143">
         <v>2</v>
       </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5076,14 +5614,20 @@
         <v>209</v>
       </c>
       <c r="G144">
+        <v>4.18</v>
+      </c>
+      <c r="H144">
         <v>3</v>
-      </c>
-      <c r="H144">
-        <v>2</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5111,14 +5655,20 @@
         <v>209</v>
       </c>
       <c r="G145">
+        <v>4.18</v>
+      </c>
+      <c r="H145">
         <v>3</v>
-      </c>
-      <c r="H145">
-        <v>2</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5142,12 +5692,12 @@
       <c r="F146">
         <v>209</v>
       </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
       <c r="I146">
         <v>2</v>
       </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5175,7 +5725,7 @@
         <v>116</v>
       </c>
       <c r="G147">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H147">
         <v>5</v>
@@ -5183,6 +5733,12 @@
       <c r="I147">
         <v>5</v>
       </c>
+      <c r="J147">
+        <v>5</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5210,7 +5766,7 @@
         <v>116</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H148">
         <v>5</v>
@@ -5218,6 +5774,12 @@
       <c r="I148">
         <v>5</v>
       </c>
+      <c r="J148">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <v>6</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5241,12 +5803,12 @@
       <c r="F149">
         <v>116</v>
       </c>
-      <c r="H149">
-        <v>7</v>
-      </c>
       <c r="I149">
         <v>7</v>
       </c>
+      <c r="J149">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5274,7 +5836,7 @@
         <v>101</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H150">
         <v>5</v>
@@ -5282,6 +5844,12 @@
       <c r="I150">
         <v>5</v>
       </c>
+      <c r="J150">
+        <v>5</v>
+      </c>
+      <c r="K150">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5309,7 +5877,7 @@
         <v>101</v>
       </c>
       <c r="G151">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H151">
         <v>5</v>
@@ -5317,6 +5885,12 @@
       <c r="I151">
         <v>5</v>
       </c>
+      <c r="J151">
+        <v>5</v>
+      </c>
+      <c r="K151">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5340,12 +5914,12 @@
       <c r="F152">
         <v>101</v>
       </c>
-      <c r="H152">
-        <v>6</v>
-      </c>
       <c r="I152">
         <v>6</v>
       </c>
+      <c r="J152">
+        <v>6</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5373,7 +5947,7 @@
         <v>140</v>
       </c>
       <c r="G153">
-        <v>6</v>
+        <v>2.92</v>
       </c>
       <c r="H153">
         <v>6</v>
@@ -5381,6 +5955,12 @@
       <c r="I153">
         <v>6</v>
       </c>
+      <c r="J153">
+        <v>6</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5408,7 +5988,7 @@
         <v>140</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>2.92</v>
       </c>
       <c r="H154">
         <v>6</v>
@@ -5416,6 +5996,12 @@
       <c r="I154">
         <v>6</v>
       </c>
+      <c r="J154">
+        <v>6</v>
+      </c>
+      <c r="K154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5439,12 +6025,12 @@
       <c r="F155">
         <v>140</v>
       </c>
-      <c r="H155">
-        <v>6</v>
-      </c>
       <c r="I155">
         <v>6</v>
       </c>
+      <c r="J155">
+        <v>6</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5472,7 +6058,7 @@
         <v>149</v>
       </c>
       <c r="G156">
-        <v>4</v>
+        <v>3.17</v>
       </c>
       <c r="H156">
         <v>4</v>
@@ -5480,6 +6066,12 @@
       <c r="I156">
         <v>4</v>
       </c>
+      <c r="J156">
+        <v>4</v>
+      </c>
+      <c r="K156">
+        <v>6</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5507,7 +6099,7 @@
         <v>149</v>
       </c>
       <c r="G157">
-        <v>4</v>
+        <v>3.17</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -5515,6 +6107,12 @@
       <c r="I157">
         <v>4</v>
       </c>
+      <c r="J157">
+        <v>4</v>
+      </c>
+      <c r="K157">
+        <v>6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5538,12 +6136,12 @@
       <c r="F158">
         <v>149</v>
       </c>
-      <c r="H158">
-        <v>4</v>
-      </c>
       <c r="I158">
         <v>4</v>
       </c>
+      <c r="J158">
+        <v>4</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5571,14 +6169,20 @@
         <v>104</v>
       </c>
       <c r="G159">
+        <v>3.25</v>
+      </c>
+      <c r="H159">
         <v>5</v>
-      </c>
-      <c r="H159">
-        <v>6</v>
       </c>
       <c r="I159">
         <v>6</v>
       </c>
+      <c r="J159">
+        <v>6</v>
+      </c>
+      <c r="K159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5606,14 +6210,20 @@
         <v>104</v>
       </c>
       <c r="G160">
+        <v>3.25</v>
+      </c>
+      <c r="H160">
         <v>5</v>
-      </c>
-      <c r="H160">
-        <v>6</v>
       </c>
       <c r="I160">
         <v>6</v>
       </c>
+      <c r="J160">
+        <v>6</v>
+      </c>
+      <c r="K160">
+        <v>6</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5637,12 +6247,12 @@
       <c r="F161">
         <v>104</v>
       </c>
-      <c r="H161">
-        <v>9</v>
-      </c>
       <c r="I161">
         <v>9</v>
       </c>
+      <c r="J161">
+        <v>9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5670,7 +6280,7 @@
         <v>42</v>
       </c>
       <c r="G162">
-        <v>8</v>
+        <v>2.47</v>
       </c>
       <c r="H162">
         <v>8</v>
@@ -5678,6 +6288,12 @@
       <c r="I162">
         <v>8</v>
       </c>
+      <c r="J162">
+        <v>8</v>
+      </c>
+      <c r="K162">
+        <v>11</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5705,7 +6321,7 @@
         <v>42</v>
       </c>
       <c r="G163">
-        <v>8</v>
+        <v>2.47</v>
       </c>
       <c r="H163">
         <v>8</v>
@@ -5713,6 +6329,12 @@
       <c r="I163">
         <v>8</v>
       </c>
+      <c r="J163">
+        <v>8</v>
+      </c>
+      <c r="K163">
+        <v>11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5740,7 +6362,7 @@
         <v>11</v>
       </c>
       <c r="G164">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H164">
         <v>10</v>
@@ -5748,6 +6370,12 @@
       <c r="I164">
         <v>10</v>
       </c>
+      <c r="J164">
+        <v>10</v>
+      </c>
+      <c r="K164">
+        <v>4</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5771,12 +6399,12 @@
       <c r="F165">
         <v>53</v>
       </c>
-      <c r="H165">
-        <v>13</v>
-      </c>
       <c r="I165">
         <v>13</v>
       </c>
+      <c r="J165">
+        <v>13</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5804,7 +6432,7 @@
         <v>46</v>
       </c>
       <c r="G166">
-        <v>8</v>
+        <v>2.42</v>
       </c>
       <c r="H166">
         <v>8</v>
@@ -5812,6 +6440,12 @@
       <c r="I166">
         <v>8</v>
       </c>
+      <c r="J166">
+        <v>8</v>
+      </c>
+      <c r="K166">
+        <v>8</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5839,7 +6473,7 @@
         <v>46</v>
       </c>
       <c r="G167">
-        <v>8</v>
+        <v>2.42</v>
       </c>
       <c r="H167">
         <v>8</v>
@@ -5847,6 +6481,12 @@
       <c r="I167">
         <v>8</v>
       </c>
+      <c r="J167">
+        <v>8</v>
+      </c>
+      <c r="K167">
+        <v>8</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5874,7 +6514,7 @@
         <v>13</v>
       </c>
       <c r="G168">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H168">
         <v>10</v>
@@ -5882,6 +6522,12 @@
       <c r="I168">
         <v>10</v>
       </c>
+      <c r="J168">
+        <v>10</v>
+      </c>
+      <c r="K168">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5905,12 +6551,12 @@
       <c r="F169">
         <v>60</v>
       </c>
-      <c r="H169">
-        <v>10</v>
-      </c>
       <c r="I169">
         <v>10</v>
       </c>
+      <c r="J169">
+        <v>10</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5938,7 +6584,7 @@
         <v>84</v>
       </c>
       <c r="G170">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="H170">
         <v>7</v>
@@ -5946,6 +6592,12 @@
       <c r="I170">
         <v>7</v>
       </c>
+      <c r="J170">
+        <v>7</v>
+      </c>
+      <c r="K170">
+        <v>10</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5973,7 +6625,7 @@
         <v>84</v>
       </c>
       <c r="G171">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="H171">
         <v>7</v>
@@ -5981,6 +6633,12 @@
       <c r="I171">
         <v>7</v>
       </c>
+      <c r="J171">
+        <v>7</v>
+      </c>
+      <c r="K171">
+        <v>10</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6008,14 +6666,20 @@
         <v>19</v>
       </c>
       <c r="G172">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H172">
         <v>10</v>
-      </c>
-      <c r="H172">
-        <v>9</v>
       </c>
       <c r="I172">
         <v>9</v>
       </c>
+      <c r="J172">
+        <v>9</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6039,12 +6703,12 @@
       <c r="F173">
         <v>102</v>
       </c>
-      <c r="H173">
-        <v>8</v>
-      </c>
       <c r="I173">
         <v>8</v>
       </c>
+      <c r="J173">
+        <v>8</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6072,7 +6736,7 @@
         <v>108</v>
       </c>
       <c r="G174">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H174">
         <v>7</v>
@@ -6080,6 +6744,12 @@
       <c r="I174">
         <v>7</v>
       </c>
+      <c r="J174">
+        <v>7</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6107,7 +6777,7 @@
         <v>108</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H175">
         <v>7</v>
@@ -6115,6 +6785,12 @@
       <c r="I175">
         <v>7</v>
       </c>
+      <c r="J175">
+        <v>7</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6142,7 +6818,7 @@
         <v>18</v>
       </c>
       <c r="G176">
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="H176">
         <v>10</v>
@@ -6150,6 +6826,12 @@
       <c r="I176">
         <v>10</v>
       </c>
+      <c r="J176">
+        <v>10</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6173,12 +6855,12 @@
       <c r="F177">
         <v>126</v>
       </c>
-      <c r="H177">
-        <v>7</v>
-      </c>
       <c r="I177">
         <v>7</v>
       </c>
+      <c r="J177">
+        <v>7</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6206,14 +6888,20 @@
         <v>117</v>
       </c>
       <c r="G178">
+        <v>4.18</v>
+      </c>
+      <c r="H178">
         <v>6</v>
-      </c>
-      <c r="H178">
-        <v>5</v>
       </c>
       <c r="I178">
         <v>5</v>
       </c>
+      <c r="J178">
+        <v>5</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6241,14 +6929,20 @@
         <v>117</v>
       </c>
       <c r="G179">
+        <v>4.18</v>
+      </c>
+      <c r="H179">
         <v>6</v>
-      </c>
-      <c r="H179">
-        <v>5</v>
       </c>
       <c r="I179">
         <v>5</v>
       </c>
+      <c r="J179">
+        <v>5</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6276,7 +6970,7 @@
         <v>21</v>
       </c>
       <c r="G180">
-        <v>10</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H180">
         <v>10</v>
@@ -6284,6 +6978,12 @@
       <c r="I180">
         <v>10</v>
       </c>
+      <c r="J180">
+        <v>10</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6307,12 +7007,12 @@
       <c r="F181">
         <v>138</v>
       </c>
-      <c r="H181">
-        <v>5</v>
-      </c>
       <c r="I181">
         <v>5</v>
       </c>
+      <c r="J181">
+        <v>5</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6340,13 +7040,19 @@
         <v>140</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -6371,12 +7077,12 @@
       <c r="F183">
         <v>140</v>
       </c>
-      <c r="H183">
-        <v>3</v>
-      </c>
       <c r="I183">
         <v>3</v>
       </c>
+      <c r="J183">
+        <v>3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6404,14 +7110,20 @@
         <v>79</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>4</v>
       </c>
+      <c r="J184">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>15</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6435,12 +7147,12 @@
       <c r="F185">
         <v>79</v>
       </c>
-      <c r="H185">
-        <v>9</v>
-      </c>
       <c r="I185">
         <v>9</v>
       </c>
+      <c r="J185">
+        <v>9</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6468,14 +7180,20 @@
         <v>73</v>
       </c>
       <c r="G186">
+        <v>0.03</v>
+      </c>
+      <c r="H186">
         <v>2</v>
-      </c>
-      <c r="H186">
-        <v>4</v>
       </c>
       <c r="I186">
         <v>4</v>
       </c>
+      <c r="J186">
+        <v>4</v>
+      </c>
+      <c r="K186">
+        <v>14</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6499,12 +7217,12 @@
       <c r="F187">
         <v>73</v>
       </c>
-      <c r="H187">
-        <v>12</v>
-      </c>
       <c r="I187">
         <v>12</v>
       </c>
+      <c r="J187">
+        <v>12</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6532,14 +7250,20 @@
         <v>88</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>3</v>
       </c>
+      <c r="J188">
+        <v>3</v>
+      </c>
+      <c r="K188">
+        <v>13</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6563,12 +7287,12 @@
       <c r="F189">
         <v>88</v>
       </c>
-      <c r="H189">
-        <v>11</v>
-      </c>
       <c r="I189">
         <v>11</v>
       </c>
+      <c r="J189">
+        <v>11</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6596,7 +7320,7 @@
         <v>120</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -6604,6 +7328,12 @@
       <c r="I190">
         <v>2</v>
       </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>11</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6627,12 +7357,12 @@
       <c r="F191">
         <v>120</v>
       </c>
-      <c r="H191">
-        <v>7</v>
-      </c>
       <c r="I191">
         <v>7</v>
       </c>
+      <c r="J191">
+        <v>7</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6653,7 +7383,7 @@
       <c r="D192">
         <v>1</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>3</v>
       </c>
     </row>
@@ -6683,7 +7413,7 @@
         <v>19</v>
       </c>
       <c r="G193">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="H193">
         <v>9</v>
@@ -6691,6 +7421,12 @@
       <c r="I193">
         <v>9</v>
       </c>
+      <c r="J193">
+        <v>9</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6714,12 +7450,12 @@
       <c r="F194">
         <v>19</v>
       </c>
-      <c r="H194">
-        <v>20</v>
-      </c>
       <c r="I194">
         <v>20</v>
       </c>
+      <c r="J194">
+        <v>20</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6740,7 +7476,7 @@
       <c r="D195">
         <v>1</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>3</v>
       </c>
     </row>
@@ -6770,14 +7506,20 @@
         <v>18</v>
       </c>
       <c r="G196">
+        <v>0.05</v>
+      </c>
+      <c r="H196">
         <v>9</v>
-      </c>
-      <c r="H196">
-        <v>8</v>
       </c>
       <c r="I196">
         <v>8</v>
       </c>
+      <c r="J196">
+        <v>8</v>
+      </c>
+      <c r="K196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6801,12 +7543,12 @@
       <c r="F197">
         <v>18</v>
       </c>
-      <c r="H197">
-        <v>19</v>
-      </c>
       <c r="I197">
         <v>19</v>
       </c>
+      <c r="J197">
+        <v>19</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6827,7 +7569,7 @@
       <c r="D198">
         <v>1</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>3</v>
       </c>
     </row>
@@ -6857,7 +7599,7 @@
         <v>19</v>
       </c>
       <c r="G199">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="H199">
         <v>9</v>
@@ -6865,6 +7607,12 @@
       <c r="I199">
         <v>9</v>
       </c>
+      <c r="J199">
+        <v>9</v>
+      </c>
+      <c r="K199">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6888,12 +7636,12 @@
       <c r="F200">
         <v>19</v>
       </c>
-      <c r="H200">
-        <v>20</v>
-      </c>
       <c r="I200">
         <v>20</v>
       </c>
+      <c r="J200">
+        <v>20</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6921,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -6929,6 +7677,12 @@
       <c r="I201">
         <v>3</v>
       </c>
+      <c r="J201">
+        <v>3</v>
+      </c>
+      <c r="K201">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6956,7 +7710,7 @@
         <v>20</v>
       </c>
       <c r="G202">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="H202">
         <v>9</v>
@@ -6964,6 +7718,12 @@
       <c r="I202">
         <v>9</v>
       </c>
+      <c r="J202">
+        <v>9</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6987,12 +7747,12 @@
       <c r="F203">
         <v>21</v>
       </c>
-      <c r="H203">
-        <v>20</v>
-      </c>
       <c r="I203">
         <v>20</v>
       </c>
+      <c r="J203">
+        <v>20</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7020,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="G204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -7028,6 +7788,12 @@
       <c r="I204">
         <v>3</v>
       </c>
+      <c r="J204">
+        <v>3</v>
+      </c>
+      <c r="K204">
+        <v>3</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7055,14 +7821,20 @@
         <v>24</v>
       </c>
       <c r="G205">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H205">
         <v>9</v>
-      </c>
-      <c r="H205">
-        <v>8</v>
       </c>
       <c r="I205">
         <v>8</v>
       </c>
+      <c r="J205">
+        <v>8</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7086,12 +7858,12 @@
       <c r="F206">
         <v>25</v>
       </c>
-      <c r="H206">
-        <v>19</v>
-      </c>
       <c r="I206">
         <v>19</v>
       </c>
+      <c r="J206">
+        <v>19</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7119,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="G207">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H207">
         <v>12</v>
@@ -7127,6 +7899,12 @@
       <c r="I207">
         <v>12</v>
       </c>
+      <c r="J207">
+        <v>12</v>
+      </c>
+      <c r="K207">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7154,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="G208">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H208">
         <v>12</v>
@@ -7162,6 +7940,12 @@
       <c r="I208">
         <v>12</v>
       </c>
+      <c r="J208">
+        <v>12</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7189,7 +7973,7 @@
         <v>58</v>
       </c>
       <c r="G209">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="H209">
         <v>5</v>
@@ -7197,6 +7981,12 @@
       <c r="I209">
         <v>5</v>
       </c>
+      <c r="J209">
+        <v>5</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7220,12 +8010,12 @@
       <c r="F210">
         <v>61</v>
       </c>
-      <c r="H210">
-        <v>10</v>
-      </c>
       <c r="I210">
         <v>10</v>
       </c>
+      <c r="J210">
+        <v>10</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7253,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="G211">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>12</v>
@@ -7261,6 +8051,12 @@
       <c r="I211">
         <v>12</v>
       </c>
+      <c r="J211">
+        <v>12</v>
+      </c>
+      <c r="K211">
+        <v>12</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7288,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="G212">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>12</v>
@@ -7296,6 +8092,12 @@
       <c r="I212">
         <v>12</v>
       </c>
+      <c r="J212">
+        <v>12</v>
+      </c>
+      <c r="K212">
+        <v>12</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7323,7 +8125,7 @@
         <v>52</v>
       </c>
       <c r="G213">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="H213">
         <v>5</v>
@@ -7331,6 +8133,12 @@
       <c r="I213">
         <v>5</v>
       </c>
+      <c r="J213">
+        <v>5</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7354,12 +8162,12 @@
       <c r="F214">
         <v>54</v>
       </c>
-      <c r="H214">
-        <v>11</v>
-      </c>
       <c r="I214">
         <v>11</v>
       </c>
+      <c r="J214">
+        <v>11</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7387,7 +8195,7 @@
         <v>2</v>
       </c>
       <c r="G215">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H215">
         <v>12</v>
@@ -7395,6 +8203,12 @@
       <c r="I215">
         <v>12</v>
       </c>
+      <c r="J215">
+        <v>12</v>
+      </c>
+      <c r="K215">
+        <v>12</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7422,7 +8236,7 @@
         <v>2</v>
       </c>
       <c r="G216">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H216">
         <v>12</v>
@@ -7430,6 +8244,12 @@
       <c r="I216">
         <v>12</v>
       </c>
+      <c r="J216">
+        <v>12</v>
+      </c>
+      <c r="K216">
+        <v>12</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7457,7 +8277,7 @@
         <v>57</v>
       </c>
       <c r="G217">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="H217">
         <v>5</v>
@@ -7465,6 +8285,12 @@
       <c r="I217">
         <v>5</v>
       </c>
+      <c r="J217">
+        <v>5</v>
+      </c>
+      <c r="K217">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7488,12 +8314,12 @@
       <c r="F218">
         <v>59</v>
       </c>
-      <c r="H218">
-        <v>14</v>
-      </c>
       <c r="I218">
         <v>14</v>
       </c>
+      <c r="J218">
+        <v>14</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7521,14 +8347,20 @@
         <v>2</v>
       </c>
       <c r="G219">
+        <v>2</v>
+      </c>
+      <c r="H219">
         <v>12</v>
-      </c>
-      <c r="H219">
-        <v>13</v>
       </c>
       <c r="I219">
         <v>13</v>
       </c>
+      <c r="J219">
+        <v>13</v>
+      </c>
+      <c r="K219">
+        <v>13</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7556,14 +8388,20 @@
         <v>2</v>
       </c>
       <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
         <v>12</v>
-      </c>
-      <c r="H220">
-        <v>13</v>
       </c>
       <c r="I220">
         <v>13</v>
       </c>
+      <c r="J220">
+        <v>13</v>
+      </c>
+      <c r="K220">
+        <v>13</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7591,7 +8429,7 @@
         <v>52</v>
       </c>
       <c r="G221">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="H221">
         <v>5</v>
@@ -7599,6 +8437,12 @@
       <c r="I221">
         <v>5</v>
       </c>
+      <c r="J221">
+        <v>5</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7622,12 +8466,12 @@
       <c r="F222">
         <v>54</v>
       </c>
-      <c r="H222">
-        <v>14</v>
-      </c>
       <c r="I222">
         <v>14</v>
       </c>
+      <c r="J222">
+        <v>14</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7655,14 +8499,20 @@
         <v>2</v>
       </c>
       <c r="G223">
+        <v>2</v>
+      </c>
+      <c r="H223">
         <v>12</v>
-      </c>
-      <c r="H223">
-        <v>13</v>
       </c>
       <c r="I223">
         <v>13</v>
       </c>
+      <c r="J223">
+        <v>13</v>
+      </c>
+      <c r="K223">
+        <v>13</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7690,14 +8540,20 @@
         <v>2</v>
       </c>
       <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224">
         <v>12</v>
-      </c>
-      <c r="H224">
-        <v>13</v>
       </c>
       <c r="I224">
         <v>13</v>
       </c>
+      <c r="J224">
+        <v>13</v>
+      </c>
+      <c r="K224">
+        <v>13</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7725,7 +8581,7 @@
         <v>66</v>
       </c>
       <c r="G225">
-        <v>5</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -7733,6 +8589,12 @@
       <c r="I225">
         <v>5</v>
       </c>
+      <c r="J225">
+        <v>5</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7756,12 +8618,12 @@
       <c r="F226">
         <v>68</v>
       </c>
-      <c r="H226">
-        <v>13</v>
-      </c>
       <c r="I226">
         <v>13</v>
       </c>
+      <c r="J226">
+        <v>13</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7789,14 +8651,20 @@
         <v>10</v>
       </c>
       <c r="G227">
+        <v>0.05</v>
+      </c>
+      <c r="H227">
         <v>11</v>
-      </c>
-      <c r="H227">
-        <v>12</v>
       </c>
       <c r="I227">
         <v>12</v>
       </c>
+      <c r="J227">
+        <v>12</v>
+      </c>
+      <c r="K227">
+        <v>4</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7820,12 +8688,12 @@
       <c r="F228">
         <v>10</v>
       </c>
-      <c r="H228">
-        <v>22</v>
-      </c>
       <c r="I228">
         <v>22</v>
       </c>
+      <c r="J228">
+        <v>22</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7853,7 +8721,7 @@
         <v>12</v>
       </c>
       <c r="G229">
-        <v>11</v>
+        <v>0.05</v>
       </c>
       <c r="H229">
         <v>11</v>
@@ -7861,6 +8729,12 @@
       <c r="I229">
         <v>11</v>
       </c>
+      <c r="J229">
+        <v>11</v>
+      </c>
+      <c r="K229">
+        <v>4</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7884,12 +8758,12 @@
       <c r="F230">
         <v>12</v>
       </c>
-      <c r="H230">
-        <v>21</v>
-      </c>
       <c r="I230">
         <v>21</v>
       </c>
+      <c r="J230">
+        <v>21</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7917,7 +8791,7 @@
         <v>13</v>
       </c>
       <c r="G231">
-        <v>11</v>
+        <v>0.06</v>
       </c>
       <c r="H231">
         <v>11</v>
@@ -7925,6 +8799,12 @@
       <c r="I231">
         <v>11</v>
       </c>
+      <c r="J231">
+        <v>11</v>
+      </c>
+      <c r="K231">
+        <v>4</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7948,12 +8828,12 @@
       <c r="F232">
         <v>13</v>
       </c>
-      <c r="H232">
-        <v>22</v>
-      </c>
       <c r="I232">
         <v>22</v>
       </c>
+      <c r="J232">
+        <v>22</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7981,7 +8861,7 @@
         <v>15</v>
       </c>
       <c r="G233">
-        <v>11</v>
+        <v>0.06</v>
       </c>
       <c r="H233">
         <v>11</v>
@@ -7989,6 +8869,12 @@
       <c r="I233">
         <v>11</v>
       </c>
+      <c r="J233">
+        <v>11</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8012,12 +8898,12 @@
       <c r="F234">
         <v>15</v>
       </c>
-      <c r="H234">
-        <v>22</v>
-      </c>
       <c r="I234">
         <v>22</v>
       </c>
+      <c r="J234">
+        <v>22</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8045,7 +8931,7 @@
         <v>18</v>
       </c>
       <c r="G235">
-        <v>11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H235">
         <v>11</v>
@@ -8053,6 +8939,12 @@
       <c r="I235">
         <v>11</v>
       </c>
+      <c r="J235">
+        <v>11</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8076,12 +8968,12 @@
       <c r="F236">
         <v>18</v>
       </c>
-      <c r="H236">
-        <v>22</v>
-      </c>
       <c r="I236">
         <v>22</v>
       </c>
+      <c r="J236">
+        <v>22</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8109,7 +9001,7 @@
         <v>25</v>
       </c>
       <c r="G237">
-        <v>11</v>
+        <v>2.78</v>
       </c>
       <c r="H237">
         <v>11</v>
@@ -8117,6 +9009,12 @@
       <c r="I237">
         <v>11</v>
       </c>
+      <c r="J237">
+        <v>11</v>
+      </c>
+      <c r="K237">
+        <v>5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8144,7 +9042,7 @@
         <v>25</v>
       </c>
       <c r="G238">
-        <v>11</v>
+        <v>2.78</v>
       </c>
       <c r="H238">
         <v>11</v>
@@ -8152,6 +9050,12 @@
       <c r="I238">
         <v>11</v>
       </c>
+      <c r="J238">
+        <v>11</v>
+      </c>
+      <c r="K238">
+        <v>5</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8179,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="G239">
-        <v>15</v>
+        <v>0.03</v>
       </c>
       <c r="H239">
         <v>15</v>
@@ -8187,6 +9091,12 @@
       <c r="I239">
         <v>15</v>
       </c>
+      <c r="J239">
+        <v>15</v>
+      </c>
+      <c r="K239">
+        <v>14</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8210,12 +9120,12 @@
       <c r="F240">
         <v>27</v>
       </c>
-      <c r="H240">
-        <v>18</v>
-      </c>
       <c r="I240">
         <v>18</v>
       </c>
+      <c r="J240">
+        <v>18</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8243,7 +9153,7 @@
         <v>41</v>
       </c>
       <c r="G241">
-        <v>9</v>
+        <v>2.56</v>
       </c>
       <c r="H241">
         <v>9</v>
@@ -8251,6 +9161,12 @@
       <c r="I241">
         <v>9</v>
       </c>
+      <c r="J241">
+        <v>9</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8278,7 +9194,7 @@
         <v>41</v>
       </c>
       <c r="G242">
-        <v>9</v>
+        <v>2.56</v>
       </c>
       <c r="H242">
         <v>9</v>
@@ -8286,6 +9202,12 @@
       <c r="I242">
         <v>9</v>
       </c>
+      <c r="J242">
+        <v>9</v>
+      </c>
+      <c r="K242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8313,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="G243">
-        <v>15</v>
+        <v>0.05</v>
       </c>
       <c r="H243">
         <v>15</v>
@@ -8321,6 +9243,12 @@
       <c r="I243">
         <v>15</v>
       </c>
+      <c r="J243">
+        <v>15</v>
+      </c>
+      <c r="K243">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8344,12 +9272,12 @@
       <c r="F244">
         <v>44</v>
       </c>
-      <c r="H244">
-        <v>14</v>
-      </c>
       <c r="I244">
         <v>14</v>
       </c>
+      <c r="J244">
+        <v>14</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8377,7 +9305,7 @@
         <v>62</v>
       </c>
       <c r="G245">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="H245">
         <v>9</v>
@@ -8385,6 +9313,12 @@
       <c r="I245">
         <v>9</v>
       </c>
+      <c r="J245">
+        <v>9</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8412,7 +9346,7 @@
         <v>62</v>
       </c>
       <c r="G246">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="H246">
         <v>9</v>
@@ -8420,6 +9354,12 @@
       <c r="I246">
         <v>9</v>
       </c>
+      <c r="J246">
+        <v>9</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8447,14 +9387,20 @@
         <v>2</v>
       </c>
       <c r="G247">
+        <v>0.05</v>
+      </c>
+      <c r="H247">
         <v>15</v>
-      </c>
-      <c r="H247">
-        <v>14</v>
       </c>
       <c r="I247">
         <v>14</v>
       </c>
+      <c r="J247">
+        <v>14</v>
+      </c>
+      <c r="K247">
+        <v>12</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8478,12 +9424,12 @@
       <c r="F248">
         <v>64</v>
       </c>
-      <c r="H248">
-        <v>13</v>
-      </c>
       <c r="I248">
         <v>13</v>
       </c>
+      <c r="J248">
+        <v>13</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8511,14 +9457,20 @@
         <v>79</v>
       </c>
       <c r="G249">
+        <v>3.95</v>
+      </c>
+      <c r="H249">
         <v>9</v>
-      </c>
-      <c r="H249">
-        <v>8</v>
       </c>
       <c r="I249">
         <v>8</v>
       </c>
+      <c r="J249">
+        <v>8</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8546,14 +9498,20 @@
         <v>79</v>
       </c>
       <c r="G250">
+        <v>3.95</v>
+      </c>
+      <c r="H250">
         <v>9</v>
-      </c>
-      <c r="H250">
-        <v>8</v>
       </c>
       <c r="I250">
         <v>8</v>
       </c>
+      <c r="J250">
+        <v>8</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8581,7 +9539,7 @@
         <v>3</v>
       </c>
       <c r="G251">
-        <v>14</v>
+        <v>0.06</v>
       </c>
       <c r="H251">
         <v>14</v>
@@ -8589,6 +9547,12 @@
       <c r="I251">
         <v>14</v>
       </c>
+      <c r="J251">
+        <v>14</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8612,12 +9576,12 @@
       <c r="F252">
         <v>83</v>
       </c>
-      <c r="H252">
-        <v>12</v>
-      </c>
       <c r="I252">
         <v>12</v>
       </c>
+      <c r="J252">
+        <v>12</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8645,7 +9609,7 @@
         <v>87</v>
       </c>
       <c r="G253">
-        <v>8</v>
+        <v>4.14</v>
       </c>
       <c r="H253">
         <v>8</v>
@@ -8653,6 +9617,12 @@
       <c r="I253">
         <v>8</v>
       </c>
+      <c r="J253">
+        <v>8</v>
+      </c>
+      <c r="K253">
+        <v>3</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8680,7 +9650,7 @@
         <v>87</v>
       </c>
       <c r="G254">
-        <v>8</v>
+        <v>4.14</v>
       </c>
       <c r="H254">
         <v>8</v>
@@ -8688,6 +9658,12 @@
       <c r="I254">
         <v>8</v>
       </c>
+      <c r="J254">
+        <v>8</v>
+      </c>
+      <c r="K254">
+        <v>3</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8715,14 +9691,20 @@
         <v>4</v>
       </c>
       <c r="G255">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H255">
         <v>14</v>
-      </c>
-      <c r="H255">
-        <v>13</v>
       </c>
       <c r="I255">
         <v>13</v>
       </c>
+      <c r="J255">
+        <v>13</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8746,12 +9728,12 @@
       <c r="F256">
         <v>91</v>
       </c>
-      <c r="H256">
-        <v>12</v>
-      </c>
       <c r="I256">
         <v>12</v>
       </c>
+      <c r="J256">
+        <v>12</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8779,14 +9761,20 @@
         <v>132</v>
       </c>
       <c r="G257">
+        <v>2.54</v>
+      </c>
+      <c r="H257">
         <v>3</v>
-      </c>
-      <c r="H257">
-        <v>4</v>
       </c>
       <c r="I257">
         <v>4</v>
       </c>
+      <c r="J257">
+        <v>4</v>
+      </c>
+      <c r="K257">
+        <v>10</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8814,14 +9802,20 @@
         <v>132</v>
       </c>
       <c r="G258">
+        <v>2.54</v>
+      </c>
+      <c r="H258">
         <v>3</v>
-      </c>
-      <c r="H258">
-        <v>4</v>
       </c>
       <c r="I258">
         <v>4</v>
       </c>
+      <c r="J258">
+        <v>4</v>
+      </c>
+      <c r="K258">
+        <v>10</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8845,12 +9839,12 @@
       <c r="F259">
         <v>132</v>
       </c>
-      <c r="H259">
-        <v>6</v>
-      </c>
       <c r="I259">
         <v>6</v>
       </c>
+      <c r="J259">
+        <v>6</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8878,14 +9872,20 @@
         <v>117</v>
       </c>
       <c r="G260">
+        <v>2.44</v>
+      </c>
+      <c r="H260">
         <v>3</v>
-      </c>
-      <c r="H260">
-        <v>4</v>
       </c>
       <c r="I260">
         <v>4</v>
       </c>
+      <c r="J260">
+        <v>4</v>
+      </c>
+      <c r="K260">
+        <v>7</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8913,14 +9913,20 @@
         <v>117</v>
       </c>
       <c r="G261">
+        <v>2.44</v>
+      </c>
+      <c r="H261">
         <v>3</v>
-      </c>
-      <c r="H261">
-        <v>4</v>
       </c>
       <c r="I261">
         <v>4</v>
       </c>
+      <c r="J261">
+        <v>4</v>
+      </c>
+      <c r="K261">
+        <v>7</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8944,12 +9950,12 @@
       <c r="F262">
         <v>117</v>
       </c>
-      <c r="H262">
-        <v>5</v>
-      </c>
       <c r="I262">
         <v>5</v>
       </c>
+      <c r="J262">
+        <v>5</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8977,7 +9983,7 @@
         <v>163</v>
       </c>
       <c r="G263">
-        <v>4</v>
+        <v>2.91</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -8985,6 +9991,12 @@
       <c r="I263">
         <v>4</v>
       </c>
+      <c r="J263">
+        <v>4</v>
+      </c>
+      <c r="K263">
+        <v>7</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9012,7 +10024,7 @@
         <v>163</v>
       </c>
       <c r="G264">
-        <v>4</v>
+        <v>2.91</v>
       </c>
       <c r="H264">
         <v>4</v>
@@ -9020,6 +10032,12 @@
       <c r="I264">
         <v>4</v>
       </c>
+      <c r="J264">
+        <v>4</v>
+      </c>
+      <c r="K264">
+        <v>7</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9043,12 +10061,12 @@
       <c r="F265">
         <v>163</v>
       </c>
-      <c r="H265">
-        <v>4</v>
-      </c>
       <c r="I265">
         <v>4</v>
       </c>
+      <c r="J265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9076,7 +10094,7 @@
         <v>143</v>
       </c>
       <c r="G266">
-        <v>5</v>
+        <v>3.18</v>
       </c>
       <c r="H266">
         <v>5</v>
@@ -9084,6 +10102,12 @@
       <c r="I266">
         <v>5</v>
       </c>
+      <c r="J266">
+        <v>5</v>
+      </c>
+      <c r="K266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9111,7 +10135,7 @@
         <v>143</v>
       </c>
       <c r="G267">
-        <v>5</v>
+        <v>3.18</v>
       </c>
       <c r="H267">
         <v>5</v>
@@ -9119,6 +10143,12 @@
       <c r="I267">
         <v>5</v>
       </c>
+      <c r="J267">
+        <v>5</v>
+      </c>
+      <c r="K267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9142,12 +10172,12 @@
       <c r="F268">
         <v>143</v>
       </c>
-      <c r="H268">
-        <v>5</v>
-      </c>
       <c r="I268">
         <v>5</v>
       </c>
+      <c r="J268">
+        <v>5</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9175,7 +10205,7 @@
         <v>123</v>
       </c>
       <c r="G269">
-        <v>4</v>
+        <v>3.24</v>
       </c>
       <c r="H269">
         <v>4</v>
@@ -9183,6 +10213,12 @@
       <c r="I269">
         <v>4</v>
       </c>
+      <c r="J269">
+        <v>4</v>
+      </c>
+      <c r="K269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9210,7 +10246,7 @@
         <v>123</v>
       </c>
       <c r="G270">
-        <v>4</v>
+        <v>3.24</v>
       </c>
       <c r="H270">
         <v>4</v>
@@ -9218,6 +10254,12 @@
       <c r="I270">
         <v>4</v>
       </c>
+      <c r="J270">
+        <v>4</v>
+      </c>
+      <c r="K270">
+        <v>8</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9241,12 +10283,12 @@
       <c r="F271">
         <v>123</v>
       </c>
-      <c r="H271">
-        <v>6</v>
-      </c>
       <c r="I271">
         <v>6</v>
       </c>
+      <c r="J271">
+        <v>6</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9274,12 +10316,18 @@
         <v>9</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="H272">
         <v>1</v>
       </c>
       <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
         <v>1</v>
       </c>
     </row>
@@ -9309,14 +10357,20 @@
         <v>84</v>
       </c>
       <c r="G273">
+        <v>0.05</v>
+      </c>
+      <c r="H273">
         <v>4</v>
-      </c>
-      <c r="H273">
-        <v>3</v>
       </c>
       <c r="I273">
         <v>3</v>
       </c>
+      <c r="J273">
+        <v>3</v>
+      </c>
+      <c r="K273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9340,12 +10394,12 @@
       <c r="F274">
         <v>93</v>
       </c>
-      <c r="H274">
-        <v>8</v>
-      </c>
       <c r="I274">
         <v>8</v>
       </c>
+      <c r="J274">
+        <v>8</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9373,12 +10427,18 @@
         <v>9</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="H275">
         <v>1</v>
       </c>
       <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
         <v>1</v>
       </c>
     </row>
@@ -9408,14 +10468,20 @@
         <v>82</v>
       </c>
       <c r="G276">
+        <v>0.06</v>
+      </c>
+      <c r="H276">
         <v>3</v>
-      </c>
-      <c r="H276">
-        <v>2</v>
       </c>
       <c r="I276">
         <v>2</v>
       </c>
+      <c r="J276">
+        <v>2</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9439,12 +10505,12 @@
       <c r="F277">
         <v>90</v>
       </c>
-      <c r="H277">
-        <v>7</v>
-      </c>
       <c r="I277">
         <v>7</v>
       </c>
+      <c r="J277">
+        <v>7</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9472,12 +10538,18 @@
         <v>10</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
         <v>1</v>
       </c>
     </row>
@@ -9507,14 +10579,20 @@
         <v>85</v>
       </c>
       <c r="G279">
+        <v>0.06</v>
+      </c>
+      <c r="H279">
         <v>3</v>
-      </c>
-      <c r="H279">
-        <v>2</v>
       </c>
       <c r="I279">
         <v>2</v>
       </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9538,12 +10616,12 @@
       <c r="F280">
         <v>95</v>
       </c>
-      <c r="H280">
-        <v>9</v>
-      </c>
       <c r="I280">
         <v>9</v>
       </c>
+      <c r="J280">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9571,13 +10649,19 @@
         <v>12</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
         <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -9606,14 +10690,20 @@
         <v>92</v>
       </c>
       <c r="G282">
+        <v>0.06</v>
+      </c>
+      <c r="H282">
         <v>3</v>
-      </c>
-      <c r="H282">
-        <v>2</v>
       </c>
       <c r="I282">
         <v>2</v>
       </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9637,12 +10727,12 @@
       <c r="F283">
         <v>104</v>
       </c>
-      <c r="H283">
-        <v>9</v>
-      </c>
       <c r="I283">
         <v>9</v>
       </c>
+      <c r="J283">
+        <v>9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9670,12 +10760,18 @@
         <v>12</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
         <v>1</v>
       </c>
     </row>
@@ -9705,7 +10801,7 @@
         <v>97</v>
       </c>
       <c r="G285">
-        <v>3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H285">
         <v>3</v>
@@ -9713,6 +10809,12 @@
       <c r="I285">
         <v>3</v>
       </c>
+      <c r="J285">
+        <v>3</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9736,12 +10838,12 @@
       <c r="F286">
         <v>109</v>
       </c>
-      <c r="H286">
-        <v>8</v>
-      </c>
       <c r="I286">
         <v>8</v>
       </c>
+      <c r="J286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9769,7 +10871,7 @@
         <v>133</v>
       </c>
       <c r="G287">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -9777,6 +10879,12 @@
       <c r="I287">
         <v>2</v>
       </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287">
+        <v>4</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9800,12 +10908,12 @@
       <c r="F288">
         <v>133</v>
       </c>
-      <c r="H288">
-        <v>5</v>
-      </c>
       <c r="I288">
         <v>5</v>
       </c>
+      <c r="J288">
+        <v>5</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9833,13 +10941,19 @@
         <v>135</v>
       </c>
       <c r="G289">
+        <v>0.05</v>
+      </c>
+      <c r="H289">
         <v>2</v>
       </c>
-      <c r="H289">
-        <v>1</v>
-      </c>
       <c r="I289">
         <v>1</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>4</v>
       </c>
     </row>
     <row r="290">
@@ -9864,12 +10978,12 @@
       <c r="F290">
         <v>135</v>
       </c>
-      <c r="H290">
-        <v>4</v>
-      </c>
       <c r="I290">
         <v>4</v>
       </c>
+      <c r="J290">
+        <v>4</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9897,13 +11011,19 @@
         <v>137</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H291">
         <v>1</v>
       </c>
       <c r="I291">
         <v>1</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>4</v>
       </c>
     </row>
     <row r="292">
@@ -9928,12 +11048,12 @@
       <c r="F292">
         <v>137</v>
       </c>
-      <c r="H292">
-        <v>7</v>
-      </c>
       <c r="I292">
         <v>7</v>
       </c>
+      <c r="J292">
+        <v>7</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9961,12 +11081,18 @@
         <v>135</v>
       </c>
       <c r="G293">
+        <v>0.06</v>
+      </c>
+      <c r="H293">
         <v>2</v>
       </c>
-      <c r="H293">
-        <v>1</v>
-      </c>
       <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
         <v>1</v>
       </c>
     </row>
@@ -9992,12 +11118,12 @@
       <c r="F294">
         <v>135</v>
       </c>
-      <c r="H294">
-        <v>6</v>
-      </c>
       <c r="I294">
         <v>6</v>
       </c>
+      <c r="J294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10025,12 +11151,18 @@
         <v>144</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H295">
         <v>1</v>
       </c>
       <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
         <v>1</v>
       </c>
     </row>
@@ -10056,12 +11188,12 @@
       <c r="F296">
         <v>144</v>
       </c>
-      <c r="H296">
-        <v>4</v>
-      </c>
       <c r="I296">
         <v>4</v>
       </c>
+      <c r="J296">
+        <v>4</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10089,14 +11221,20 @@
         <v>4</v>
       </c>
       <c r="G297">
+        <v>0.06</v>
+      </c>
+      <c r="H297">
         <v>14</v>
-      </c>
-      <c r="H297">
-        <v>13</v>
       </c>
       <c r="I297">
         <v>13</v>
       </c>
+      <c r="J297">
+        <v>13</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10120,12 +11258,12 @@
       <c r="F298">
         <v>4</v>
       </c>
-      <c r="H298">
-        <v>23</v>
-      </c>
       <c r="I298">
         <v>23</v>
       </c>
+      <c r="J298">
+        <v>23</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10153,14 +11291,20 @@
         <v>4</v>
       </c>
       <c r="G299">
+        <v>0.06</v>
+      </c>
+      <c r="H299">
         <v>14</v>
-      </c>
-      <c r="H299">
-        <v>13</v>
       </c>
       <c r="I299">
         <v>13</v>
       </c>
+      <c r="J299">
+        <v>13</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10184,12 +11328,12 @@
       <c r="F300">
         <v>4</v>
       </c>
-      <c r="H300">
-        <v>23</v>
-      </c>
       <c r="I300">
         <v>23</v>
       </c>
+      <c r="J300">
+        <v>23</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10217,7 +11361,7 @@
         <v>5</v>
       </c>
       <c r="G301">
-        <v>13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H301">
         <v>13</v>
@@ -10225,6 +11369,12 @@
       <c r="I301">
         <v>13</v>
       </c>
+      <c r="J301">
+        <v>13</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10248,12 +11398,12 @@
       <c r="F302">
         <v>5</v>
       </c>
-      <c r="H302">
-        <v>23</v>
-      </c>
       <c r="I302">
         <v>23</v>
       </c>
+      <c r="J302">
+        <v>23</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10281,7 +11431,7 @@
         <v>4</v>
       </c>
       <c r="G303">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H303">
         <v>13</v>
@@ -10289,6 +11439,12 @@
       <c r="I303">
         <v>13</v>
       </c>
+      <c r="J303">
+        <v>13</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -10312,12 +11468,12 @@
       <c r="F304">
         <v>4</v>
       </c>
-      <c r="H304">
-        <v>23</v>
-      </c>
       <c r="I304">
         <v>23</v>
       </c>
+      <c r="J304">
+        <v>23</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10345,7 +11501,7 @@
         <v>4</v>
       </c>
       <c r="G305">
-        <v>13</v>
+        <v>0.05</v>
       </c>
       <c r="H305">
         <v>13</v>
@@ -10353,6 +11509,12 @@
       <c r="I305">
         <v>13</v>
       </c>
+      <c r="J305">
+        <v>13</v>
+      </c>
+      <c r="K305">
+        <v>13</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -10376,12 +11538,12 @@
       <c r="F306">
         <v>4</v>
       </c>
-      <c r="H306">
-        <v>23</v>
-      </c>
       <c r="I306">
         <v>23</v>
       </c>
+      <c r="J306">
+        <v>23</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -10409,7 +11571,7 @@
         <v>37</v>
       </c>
       <c r="G307">
-        <v>9</v>
+        <v>2.64</v>
       </c>
       <c r="H307">
         <v>9</v>
@@ -10417,6 +11579,12 @@
       <c r="I307">
         <v>9</v>
       </c>
+      <c r="J307">
+        <v>9</v>
+      </c>
+      <c r="K307">
+        <v>7</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10444,7 +11612,7 @@
         <v>37</v>
       </c>
       <c r="G308">
-        <v>9</v>
+        <v>2.64</v>
       </c>
       <c r="H308">
         <v>9</v>
@@ -10452,6 +11620,12 @@
       <c r="I308">
         <v>9</v>
       </c>
+      <c r="J308">
+        <v>9</v>
+      </c>
+      <c r="K308">
+        <v>7</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10475,12 +11649,12 @@
       <c r="F309">
         <v>37</v>
       </c>
-      <c r="H309">
-        <v>15</v>
-      </c>
       <c r="I309">
         <v>15</v>
       </c>
+      <c r="J309">
+        <v>15</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10508,7 +11682,7 @@
         <v>30</v>
       </c>
       <c r="G310">
-        <v>10</v>
+        <v>2.31</v>
       </c>
       <c r="H310">
         <v>10</v>
@@ -10516,6 +11690,12 @@
       <c r="I310">
         <v>10</v>
       </c>
+      <c r="J310">
+        <v>10</v>
+      </c>
+      <c r="K310">
+        <v>11</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10543,7 +11723,7 @@
         <v>30</v>
       </c>
       <c r="G311">
-        <v>10</v>
+        <v>2.31</v>
       </c>
       <c r="H311">
         <v>10</v>
@@ -10551,6 +11731,12 @@
       <c r="I311">
         <v>10</v>
       </c>
+      <c r="J311">
+        <v>10</v>
+      </c>
+      <c r="K311">
+        <v>11</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10574,12 +11760,12 @@
       <c r="F312">
         <v>30</v>
       </c>
-      <c r="H312">
-        <v>17</v>
-      </c>
       <c r="I312">
         <v>17</v>
       </c>
+      <c r="J312">
+        <v>17</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10607,7 +11793,7 @@
         <v>44</v>
       </c>
       <c r="G313">
-        <v>10</v>
+        <v>2.93</v>
       </c>
       <c r="H313">
         <v>10</v>
@@ -10615,6 +11801,12 @@
       <c r="I313">
         <v>10</v>
       </c>
+      <c r="J313">
+        <v>10</v>
+      </c>
+      <c r="K313">
+        <v>3</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10642,7 +11834,7 @@
         <v>44</v>
       </c>
       <c r="G314">
-        <v>10</v>
+        <v>2.93</v>
       </c>
       <c r="H314">
         <v>10</v>
@@ -10650,6 +11842,12 @@
       <c r="I314">
         <v>10</v>
       </c>
+      <c r="J314">
+        <v>10</v>
+      </c>
+      <c r="K314">
+        <v>3</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10673,12 +11871,12 @@
       <c r="F315">
         <v>44</v>
       </c>
-      <c r="H315">
-        <v>16</v>
-      </c>
       <c r="I315">
         <v>16</v>
       </c>
+      <c r="J315">
+        <v>16</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10706,7 +11904,7 @@
         <v>44</v>
       </c>
       <c r="G316">
-        <v>10</v>
+        <v>3.14</v>
       </c>
       <c r="H316">
         <v>10</v>
@@ -10714,6 +11912,12 @@
       <c r="I316">
         <v>10</v>
       </c>
+      <c r="J316">
+        <v>10</v>
+      </c>
+      <c r="K316">
+        <v>8</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10741,7 +11945,7 @@
         <v>44</v>
       </c>
       <c r="G317">
-        <v>10</v>
+        <v>3.14</v>
       </c>
       <c r="H317">
         <v>10</v>
@@ -10749,6 +11953,12 @@
       <c r="I317">
         <v>10</v>
       </c>
+      <c r="J317">
+        <v>10</v>
+      </c>
+      <c r="K317">
+        <v>8</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10772,12 +11982,12 @@
       <c r="F318">
         <v>44</v>
       </c>
-      <c r="H318">
-        <v>16</v>
-      </c>
       <c r="I318">
         <v>16</v>
       </c>
+      <c r="J318">
+        <v>16</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10805,7 +12015,7 @@
         <v>39</v>
       </c>
       <c r="G319">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="H319">
         <v>10</v>
@@ -10813,6 +12023,12 @@
       <c r="I319">
         <v>10</v>
       </c>
+      <c r="J319">
+        <v>10</v>
+      </c>
+      <c r="K319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10840,7 +12056,7 @@
         <v>39</v>
       </c>
       <c r="G320">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="H320">
         <v>10</v>
@@ -10848,6 +12064,12 @@
       <c r="I320">
         <v>10</v>
       </c>
+      <c r="J320">
+        <v>10</v>
+      </c>
+      <c r="K320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10871,12 +12093,12 @@
       <c r="F321">
         <v>39</v>
       </c>
-      <c r="H321">
-        <v>17</v>
-      </c>
       <c r="I321">
         <v>17</v>
       </c>
+      <c r="J321">
+        <v>17</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10904,7 +12126,7 @@
         <v>28</v>
       </c>
       <c r="G322">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="H322">
         <v>10</v>
@@ -10912,6 +12134,12 @@
       <c r="I322">
         <v>10</v>
       </c>
+      <c r="J322">
+        <v>10</v>
+      </c>
+      <c r="K322">
+        <v>12</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10939,7 +12167,7 @@
         <v>28</v>
       </c>
       <c r="G323">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="H323">
         <v>10</v>
@@ -10947,6 +12175,12 @@
       <c r="I323">
         <v>10</v>
       </c>
+      <c r="J323">
+        <v>10</v>
+      </c>
+      <c r="K323">
+        <v>12</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10970,12 +12204,12 @@
       <c r="F324">
         <v>28</v>
       </c>
-      <c r="H324">
-        <v>17</v>
-      </c>
       <c r="I324">
         <v>17</v>
       </c>
+      <c r="J324">
+        <v>17</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -11003,7 +12237,7 @@
         <v>28</v>
       </c>
       <c r="G325">
-        <v>11</v>
+        <v>2.33</v>
       </c>
       <c r="H325">
         <v>11</v>
@@ -11011,6 +12245,12 @@
       <c r="I325">
         <v>11</v>
       </c>
+      <c r="J325">
+        <v>11</v>
+      </c>
+      <c r="K325">
+        <v>10</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -11038,7 +12278,7 @@
         <v>28</v>
       </c>
       <c r="G326">
-        <v>11</v>
+        <v>2.33</v>
       </c>
       <c r="H326">
         <v>11</v>
@@ -11046,6 +12286,12 @@
       <c r="I326">
         <v>11</v>
       </c>
+      <c r="J326">
+        <v>11</v>
+      </c>
+      <c r="K326">
+        <v>10</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -11069,12 +12315,12 @@
       <c r="F327">
         <v>28</v>
       </c>
-      <c r="H327">
-        <v>18</v>
-      </c>
       <c r="I327">
         <v>18</v>
       </c>
+      <c r="J327">
+        <v>18</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -11102,7 +12348,7 @@
         <v>42</v>
       </c>
       <c r="G328">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H328">
         <v>11</v>
@@ -11110,6 +12356,12 @@
       <c r="I328">
         <v>11</v>
       </c>
+      <c r="J328">
+        <v>11</v>
+      </c>
+      <c r="K328">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -11137,7 +12389,7 @@
         <v>42</v>
       </c>
       <c r="G329">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H329">
         <v>11</v>
@@ -11145,6 +12397,12 @@
       <c r="I329">
         <v>11</v>
       </c>
+      <c r="J329">
+        <v>11</v>
+      </c>
+      <c r="K329">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -11168,12 +12426,12 @@
       <c r="F330">
         <v>42</v>
       </c>
-      <c r="H330">
-        <v>17</v>
-      </c>
       <c r="I330">
         <v>17</v>
       </c>
+      <c r="J330">
+        <v>17</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -11201,7 +12459,7 @@
         <v>40</v>
       </c>
       <c r="G331">
-        <v>11</v>
+        <v>3.08</v>
       </c>
       <c r="H331">
         <v>11</v>
@@ -11209,6 +12467,12 @@
       <c r="I331">
         <v>11</v>
       </c>
+      <c r="J331">
+        <v>11</v>
+      </c>
+      <c r="K331">
+        <v>9</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -11236,7 +12500,7 @@
         <v>40</v>
       </c>
       <c r="G332">
-        <v>11</v>
+        <v>3.08</v>
       </c>
       <c r="H332">
         <v>11</v>
@@ -11244,6 +12508,12 @@
       <c r="I332">
         <v>11</v>
       </c>
+      <c r="J332">
+        <v>11</v>
+      </c>
+      <c r="K332">
+        <v>9</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -11267,12 +12537,12 @@
       <c r="F333">
         <v>40</v>
       </c>
-      <c r="H333">
-        <v>17</v>
-      </c>
       <c r="I333">
         <v>17</v>
       </c>
+      <c r="J333">
+        <v>17</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -11300,7 +12570,7 @@
         <v>38</v>
       </c>
       <c r="G334">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="H334">
         <v>11</v>
@@ -11308,6 +12578,12 @@
       <c r="I334">
         <v>11</v>
       </c>
+      <c r="J334">
+        <v>11</v>
+      </c>
+      <c r="K334">
+        <v>5</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -11335,7 +12611,7 @@
         <v>38</v>
       </c>
       <c r="G335">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="H335">
         <v>11</v>
@@ -11343,6 +12619,12 @@
       <c r="I335">
         <v>11</v>
       </c>
+      <c r="J335">
+        <v>11</v>
+      </c>
+      <c r="K335">
+        <v>5</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -11366,12 +12648,12 @@
       <c r="F336">
         <v>38</v>
       </c>
-      <c r="H336">
-        <v>18</v>
-      </c>
       <c r="I336">
         <v>18</v>
       </c>
+      <c r="J336">
+        <v>18</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -11399,7 +12681,7 @@
         <v>4</v>
       </c>
       <c r="G337">
-        <v>13</v>
+        <v>0.04</v>
       </c>
       <c r="H337">
         <v>13</v>
@@ -11407,6 +12689,12 @@
       <c r="I337">
         <v>13</v>
       </c>
+      <c r="J337">
+        <v>13</v>
+      </c>
+      <c r="K337">
+        <v>12</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -11430,12 +12718,12 @@
       <c r="F338">
         <v>4</v>
       </c>
-      <c r="H338">
-        <v>23</v>
-      </c>
       <c r="I338">
         <v>23</v>
       </c>
+      <c r="J338">
+        <v>23</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -11463,7 +12751,7 @@
         <v>4</v>
       </c>
       <c r="G339">
-        <v>13</v>
+        <v>0.04</v>
       </c>
       <c r="H339">
         <v>13</v>
@@ -11471,6 +12759,12 @@
       <c r="I339">
         <v>13</v>
       </c>
+      <c r="J339">
+        <v>13</v>
+      </c>
+      <c r="K339">
+        <v>13</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -11494,12 +12788,12 @@
       <c r="F340">
         <v>4</v>
       </c>
-      <c r="H340">
-        <v>23</v>
-      </c>
       <c r="I340">
         <v>23</v>
       </c>
+      <c r="J340">
+        <v>23</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -11527,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="G341">
-        <v>14</v>
+        <v>0.03</v>
       </c>
       <c r="H341">
         <v>14</v>
@@ -11535,6 +12829,12 @@
       <c r="I341">
         <v>14</v>
       </c>
+      <c r="J341">
+        <v>14</v>
+      </c>
+      <c r="K341">
+        <v>14</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -11558,12 +12858,12 @@
       <c r="F342">
         <v>2</v>
       </c>
-      <c r="H342">
-        <v>24</v>
-      </c>
       <c r="I342">
         <v>24</v>
       </c>
+      <c r="J342">
+        <v>24</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -11591,7 +12891,7 @@
         <v>23</v>
       </c>
       <c r="G343">
-        <v>8</v>
+        <v>0.04</v>
       </c>
       <c r="H343">
         <v>8</v>
@@ -11599,6 +12899,12 @@
       <c r="I343">
         <v>8</v>
       </c>
+      <c r="J343">
+        <v>8</v>
+      </c>
+      <c r="K343">
+        <v>12</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -11622,12 +12928,12 @@
       <c r="F344">
         <v>23</v>
       </c>
-      <c r="H344">
-        <v>19</v>
-      </c>
       <c r="I344">
         <v>19</v>
       </c>
+      <c r="J344">
+        <v>19</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -11655,14 +12961,20 @@
         <v>17</v>
       </c>
       <c r="G345">
+        <v>0.04</v>
+      </c>
+      <c r="H345">
         <v>8</v>
-      </c>
-      <c r="H345">
-        <v>9</v>
       </c>
       <c r="I345">
         <v>9</v>
       </c>
+      <c r="J345">
+        <v>9</v>
+      </c>
+      <c r="K345">
+        <v>13</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -11686,12 +12998,12 @@
       <c r="F346">
         <v>17</v>
       </c>
-      <c r="H346">
-        <v>20</v>
-      </c>
       <c r="I346">
         <v>20</v>
       </c>
+      <c r="J346">
+        <v>20</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -11719,7 +13031,7 @@
         <v>20</v>
       </c>
       <c r="G347">
-        <v>8</v>
+        <v>0.04</v>
       </c>
       <c r="H347">
         <v>8</v>
@@ -11727,6 +13039,12 @@
       <c r="I347">
         <v>8</v>
       </c>
+      <c r="J347">
+        <v>8</v>
+      </c>
+      <c r="K347">
+        <v>13</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -11750,12 +13068,12 @@
       <c r="F348">
         <v>20</v>
       </c>
-      <c r="H348">
-        <v>19</v>
-      </c>
       <c r="I348">
         <v>19</v>
       </c>
+      <c r="J348">
+        <v>19</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -11783,7 +13101,7 @@
         <v>22</v>
       </c>
       <c r="G349">
-        <v>8</v>
+        <v>0.04</v>
       </c>
       <c r="H349">
         <v>8</v>
@@ -11791,6 +13109,12 @@
       <c r="I349">
         <v>8</v>
       </c>
+      <c r="J349">
+        <v>8</v>
+      </c>
+      <c r="K349">
+        <v>13</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -11814,12 +13138,12 @@
       <c r="F350">
         <v>22</v>
       </c>
-      <c r="H350">
-        <v>19</v>
-      </c>
       <c r="I350">
         <v>19</v>
       </c>
+      <c r="J350">
+        <v>19</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -11847,7 +13171,7 @@
         <v>24</v>
       </c>
       <c r="G351">
-        <v>8</v>
+        <v>0.04</v>
       </c>
       <c r="H351">
         <v>8</v>
@@ -11855,6 +13179,12 @@
       <c r="I351">
         <v>8</v>
       </c>
+      <c r="J351">
+        <v>8</v>
+      </c>
+      <c r="K351">
+        <v>14</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -11878,10 +13208,10 @@
       <c r="F352">
         <v>24</v>
       </c>
-      <c r="H352">
+      <c r="I352">
         <v>21</v>
       </c>
-      <c r="I352">
+      <c r="J352">
         <v>21</v>
       </c>
     </row>
